--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobox\Documents\_Documents\ece445\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\_Stuff\_School\Senior\second_sem\ece445\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EE20D-8021-40C8-9804-1A012A12C5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{5DEBADB4-9616-4B8F-B2A9-537873BE1AF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="HLR1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="SEPIC" sheetId="3" r:id="rId3"/>
     <sheet name="Buck" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Yellow</t>
   </si>
@@ -117,13 +116,22 @@
   <si>
     <t>Average power (20% PWM)</t>
   </si>
+  <si>
+    <t>Output Voltage (V) at 0 mA</t>
+  </si>
+  <si>
+    <t>Output Voltage (V) at 250 mA</t>
+  </si>
+  <si>
+    <t>Output Voltage (V) at 500mA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,7 +172,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -228,6 +236,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -260,9 +269,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -279,15 +287,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HLR1'!$B$1:$J$2</c:f>
@@ -372,6 +382,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AE84-4DBC-BE64-A849A69AD841}"/>
@@ -393,15 +404,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HLR1'!$B$1:$J$2</c:f>
@@ -486,6 +499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AE84-4DBC-BE64-A849A69AD841}"/>
@@ -500,11 +514,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="2018458496"/>
         <c:axId val="2018452256"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="2018458496"/>
         <c:scaling>
@@ -603,6 +616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -677,6 +691,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -791,6 +806,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -823,9 +839,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -842,15 +857,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>ACDC!$A$2:$A$12</c:f>
@@ -935,6 +952,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0D80-47D8-B31E-42335FEFFE1A}"/>
@@ -949,11 +967,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1990580480"/>
         <c:axId val="1990570496"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1990580480"/>
         <c:scaling>
@@ -987,6 +1004,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1107,6 +1125,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1250,17 +1269,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SEPIC</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Current vs Voltage</a:t>
+              <a:t>Sweeping Load Current at 18 V</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1293,9 +1309,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1312,15 +1327,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>SEPIC!$A$3:$A$11</c:f>
@@ -1393,6 +1410,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C4D-46CB-8F6D-80987621B8BC}"/>
@@ -1407,11 +1425,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1986309904"/>
         <c:axId val="1986309072"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1986309904"/>
         <c:scaling>
@@ -1445,6 +1462,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1475,7 +1493,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1565,6 +1583,535 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986309904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sweeping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Input Voltage at 0.5 A Load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SEPIC!$M$3:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SEPIC!$N$3:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>23.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1D6-4091-BA68-620CD29CE12A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1825909391"/>
+        <c:axId val="1825906895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1825909391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1825906895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1825906895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1625,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1986309904"/>
+        <c:crossAx val="1825909391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,6 +2184,652 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sweeping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voltage/Current</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Buck!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output Voltage (V) at 0 mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Buck!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Buck!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE10-443C-963D-AADC5A336873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Buck!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output Voltage (V) at 250 mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Buck!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Buck!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE10-443C-963D-AADC5A336873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Buck!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output Voltage (V) at 500mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Buck!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Buck!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE10-443C-963D-AADC5A336873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1961163039"/>
+        <c:axId val="1961162207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1961163039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961162207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1961162207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961163039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73175252629742771"/>
+          <c:y val="0.26018646685094582"/>
+          <c:w val="0.26824747370257235"/>
+          <c:h val="0.18048259729745739"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1794,6 +2987,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2801,6 +4074,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3390,15 +5669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3409,6 +5688,71 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133474</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3722,11 +6066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB174077-8AF0-4ADB-B54F-63D0C29202B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69787587-E2DB-40C7-83E6-7805C0415A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,11 +6492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE83EFFB-3B02-4A45-8F32-01988C2D7EB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,11 +6828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99658C4E-6F93-4EF2-8249-7ECBAB20ABAA}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,17 +6840,24 @@
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +6867,35 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4527,8 +6905,35 @@
       <c r="C3">
         <v>5.0599999999999996</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21.6</v>
+      </c>
+      <c r="G3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="J3">
+        <v>21.6</v>
+      </c>
+      <c r="K3">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3">
+        <v>21.6</v>
+      </c>
+      <c r="O3">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>250</v>
       </c>
@@ -4538,8 +6943,35 @@
       <c r="C4">
         <v>4.9800000000000004</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>22.8</v>
+      </c>
+      <c r="G4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+      <c r="J4">
+        <v>22.8</v>
+      </c>
+      <c r="K4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
+        <v>22.8</v>
+      </c>
+      <c r="O4">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -4549,8 +6981,35 @@
       <c r="C5">
         <v>4.91</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4560,8 +7019,35 @@
       <c r="C6">
         <v>5.0599999999999996</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>25.2</v>
+      </c>
+      <c r="G6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I6">
+        <v>250</v>
+      </c>
+      <c r="J6">
+        <v>25.2</v>
+      </c>
+      <c r="K6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
+        <v>25.2</v>
+      </c>
+      <c r="O6">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>250</v>
       </c>
@@ -4571,8 +7057,35 @@
       <c r="C7">
         <v>4.9800000000000004</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>26.4</v>
+      </c>
+      <c r="G7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I7">
+        <v>250</v>
+      </c>
+      <c r="J7">
+        <v>26.4</v>
+      </c>
+      <c r="K7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
+        <v>26.4</v>
+      </c>
+      <c r="O7">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -4583,7 +7096,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4594,7 +7107,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -4605,7 +7118,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -4616,7 +7129,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4627,7 +7140,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>250</v>
       </c>
@@ -4638,7 +7151,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>500</v>
       </c>
@@ -4649,7 +7162,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4660,7 +7173,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>250</v>
       </c>
@@ -4684,5 +7197,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Yellow</t>
   </si>
@@ -2671,20 +2671,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2706,13 +2692,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Output</a:t>
+                  <a:t>Output Voltage (V)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Voltage (V)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2791,16 +2772,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.73175252629742771"/>
-          <c:y val="0.26018646685094582"/>
-          <c:w val="0.26824747370257235"/>
-          <c:h val="0.18048259729745739"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6069,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -6378,10 +6350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,100 +6361,136 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>24.35</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>24.2</v>
       </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
       <c r="B4">
         <v>24.13</v>
       </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.6</v>
       </c>
       <c r="B5">
         <v>24.18</v>
       </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
         <v>24.15</v>
       </c>
+      <c r="C6">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>24.12</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.2</v>
       </c>
       <c r="B8">
         <v>24.08</v>
       </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.4</v>
       </c>
       <c r="B9">
         <v>24.05</v>
       </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6</v>
       </c>
       <c r="B10">
         <v>24.02</v>
       </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.8</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
         <v>23.98</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6495,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6840,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
